--- a/output/product1.xlsx
+++ b/output/product1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,84 +478,294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro Silicone Case with MagSafe - Clay ​​​​​​​</t>
+          <t>Apple iPhone 13 (128 GB) - Azul</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CHWWW47T</t>
+          <t>B09G9DMQ7M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sin Información</t>
+          <t>739,00 €</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.3 out of 5 stars</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,091</t>
+          <t>10.557</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODM3NjM3MzM4MDY1MDY1OjE3MDk3Mjc5NzU6c3BfYXRmOjMwMDEwNTQ2MTAzMTUwMjo6MDo6&amp;url=%2FApple-iPhone-Silicone-Case-MagSafe%2Fdp%2FB0CHWWW47T%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.no44Spb7-QOsCkFuCHcFv4MU0hjlU9jhyA0Bnet30q9tk5cPXohnIut3KmXFL4q4PDSMdG8GjpUs_hVLWHo4lQ2M7Yn4prybLAV7Jep_Ca1QvtxSdlHxJNu70gvFeNS8SaMTRjJ0zdZZIy5kXfoNKIJCYEo-SwxV99Mm0_g-WI_7MwbHSG6e25ZaCBUKNYdT-8Smqo0qVuSgowzJIEGiphBo13NW6CkNVLz2gMVkOjY.rc0ZgBwaXAXZAV8e2j8DVfyORtMC6PWjqAWZmqGzbWI%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709727975%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxMTMyOTk5ODMzNDU1MDY1OjE3MDk3NDQxNTc6c3BfYXRmOjIwMDg0NDkzNjUxMDA0OjowOjo&amp;url=%2FApple-iPhone-13-128-GB-Azul%2Fdp%2FB09G9DMQ7M%2Fref%3Dsr_1_1%3Fdib%3DeyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg%26dib_tag%3Dse%26keywords%3Diphone%2B13%2Bpro%26qid%3D1709744157%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41GFCpGReNL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71dpTXFz+dL._AC_UL320_.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iPhone 15 Pro Clear Case with MagSafe ​​​​​​​</t>
+          <t>Apple iPhone 14 Pro (128 GB) - Oro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CHX82T5P</t>
+          <t>B0BDKQJ14P</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$49.00</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$49.00</t>
+          <t>Sin Información</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.3 out of 5 stars</t>
+          <t>4,7 de 5 estrellas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>3.679</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxODM3NjM3MzM4MDY1MDY1OjE3MDk3Mjc5NzU6c3BfYXRmOjMwMDEwNTQ2MTAzMzEwMjo6MDo6&amp;url=%2FApple-iPhone-Clear-Case-MagSafe%2Fdp%2FB0CHX82T5P%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.no44Spb7-QOsCkFuCHcFv4MU0hjlU9jhyA0Bnet30q9tk5cPXohnIut3KmXFL4q4PDSMdG8GjpUs_hVLWHo4lQ2M7Yn4prybLAV7Jep_Ca1QvtxSdlHxJNu70gvFeNS8SaMTRjJ0zdZZIy5kXfoNKIJCYEo-SwxV99Mm0_g-WI_7MwbHSG6e25ZaCBUKNYdT-8Smqo0qVuSgowzJIEGiphBo13NW6CkNVLz2gMVkOjY.rc0ZgBwaXAXZAV8e2j8DVfyORtMC6PWjqAWZmqGzbWI%26dib_tag%3Dse%26keywords%3Diphone%2B15%2Bpro%26qid%3D1709727975%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxMTMyOTk5ODMzNDU1MDY1OjE3MDk3NDQxNTc6c3BfYXRmOjIwMDc2NjQ4MDU3ODk4OjowOjo&amp;url=%2FApple-iPhone-14-Pro-128%2Fdp%2FB0BDKQJ14P%2Fref%3Dsr_1_2%3Fdib%3DeyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg%26dib_tag%3Dse%26keywords%3Diphone%2B13%2Bpro%26qid%3D1709744157%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51pPPth9kyL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ZDY57yTQL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 Plus (128 GB) - (Product) Red</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BDJW51NW</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>959,00 €</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>959,00 €</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4,6 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.461</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxMTMyOTk5ODMzNDU1MDY1OjE3MDk3NDQxNTc6c3BfYXRmOjIwMDc2NjQ4MDU1OTk4OjowOjo&amp;url=%2FApple-iPhone-14-Plus-128%2Fdp%2FB0BDJW51NW%2Fref%3Dsr_1_3%3Fdib%3DeyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg%26dib_tag%3Dse%26keywords%3Diphone%2B13%2Bpro%26qid%3D1709744157%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/716fAVud8PL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple iPhone 14 (128 GB) - Malva</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BDJZLSDH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>859,00 €</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>859,00 €</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4,6 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.014</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/sspa/click?ie=UTF8&amp;spc=MToxMTMyOTk5ODMzNDU1MDY1OjE3MDk3NDQxNTc6c3BfYXRmOjIwMDc2NjQ4MDYxNTk4OjowOjo&amp;url=%2FApple-iPhone-14-128-GB%2Fdp%2FB0BDJZLSDH%2Fref%3Dsr_1_4%3Fdib%3DeyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg%26dib_tag%3Dse%26keywords%3Diphone%2B13%2Bpro%26qid%3D1709744157%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/619f09kK7tL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 Pro, 128GB, Azul alpino - (Reacondicionado)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B09MJRCYYB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>625,90 €</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>625,90 €</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4,1 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Apple-iPhone-128GB-Azul-alpino/dp/B09MJRCYYB/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg&amp;dib_tag=se&amp;keywords=iphone+13+pro&amp;qid=1709744157&amp;sr=8-5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61RAsVPOjxL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apple iPhone 13 (128 GB) - en Blanco Estrella</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B09G98QYSD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>739,00 €</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>739,00 €</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4,7 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.557</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Apple-iPhone-13-128-GB-Blanco/dp/B09G98QYSD/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg&amp;dib_tag=se&amp;keywords=iphone+13+pro&amp;qid=1709744157&amp;sr=8-6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/71iIaQjJunL._AC_UL320_.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iPhone 13 Pro 128 Go - Azul</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B09MJT5DY3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sin Información</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3,7 de 5 estrellas</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/iPhone-13-Pro-128-Go/dp/B09MJT5DY3/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ZI3BPTtibivCBsP0WF00StcxkusorpNKzaxezoZvf5dCUlEb0U1vc6TQ03STuxi51Bqea3AHA1WS88UhcAAd43x_FXq1Ogov8l491i79_2yuoBxDA8PO7jaTEVowAyA6kkGQOPpN95FZ09RfKl94AetTNuwMJyD6dkor1h2Zj9F5AqxZ3UvEhOAjpwSRs4X9G2JZGEYjy3QsYnWcywgjC6lEyhN4M4S09D4I4Uw54UasjbdKFJfFw5nW8wEcr9qLB9Herds34c8YF8j5r8_X6yysn7-YEDosBiLZm1muQak.suwD3AnGy-M8TLkc2QPHHXcSpV4ZBFv1JCpXewswCtg&amp;dib_tag=se&amp;keywords=iphone+13+pro&amp;qid=1709744157&amp;sr=8-7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61RAsVPOjxL._AC_UL320_.jpg</t>
         </is>
       </c>
     </row>
